--- a/input/images/tables/scopes.xlsx
+++ b/input/images/tables/scopes.xlsx
@@ -1328,7 +1328,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/3.1.0/CodeSystem-observation-category.html|social-history</t>
+          <t>http://terminology.hl7.org//CodeSystem-observation-category.html|social-history</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/3.1.0/CodeSystem-observation-category.html|social-history</t>
+          <t>http://terminology.hl7.org//CodeSystem-observation-category.html|social-history</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/3.1.0/CodeSystem-observation-category.html|social-history</t>
+          <t>http://terminology.hl7.org//CodeSystem-observation-category.html|social-history</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/3.1.0/CodeSystem-observation-category.html|social-history</t>
+          <t>http://terminology.hl7.org//CodeSystem-observation-category.html|social-history</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/3.1.0/CodeSystem-observation-category.html|social-history</t>
+          <t>http://terminology.hl7.org//CodeSystem-observation-category.html|social-history</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>

--- a/input/images/tables/scopes.xlsx
+++ b/input/images/tables/scopes.xlsx
@@ -438,12 +438,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>add_scope</t>
+          <t>resource_conformance</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>data_element</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -458,169 +458,258 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>category_1_conformance</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>category_2</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>category_2_conformance</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
         <is>
           <t>category_3</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>category_3_conformance</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>category_4</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>category_4_conformance</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>category_5</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>category_5_conformance</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>category_6</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>category_6_conformance</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>US Core AllergyIntolerance Profile</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>StructureDefinition-argo-write-observation.html</t>
+          <t>StructureDefinition-us-core-allergyintolerance.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>laboratory</t>
+          <t>allergy and intolerance</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/CodeSystem/Observation-category|laboratory</t>
-        </is>
-      </c>
+          <t>AllergyIntolerance</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US Core AllergyIntolerance Profile</t>
+          <t>US Core CarePlan Profile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-allergyintolerance.html</t>
+          <t>StructureDefinition-us-core-careplan.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>allergy and intolerance</t>
+          <t>care plan</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AllergyIntolerance</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>US Core CarePlan Profile</t>
+          <t>US Core CareTeam Profile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-careplan.html</t>
+          <t>StructureDefinition-us-core-careteam.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>care plan</t>
+          <t>careteam</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CarePlan</t>
+          <t>CareTeam</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US Core CareTeam Profile</t>
+          <t>US Core Condition Encounter Diagnosis Profile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-careteam.html</t>
+          <t>StructureDefinition-us-core-condition-encounter-diagnosis.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>careteam</t>
+          <t>encounter diagnosis</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CareTeam</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/condition-category|encounter-diagnosis</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>US Core Condition Encounter Diagnosis Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-condition-encounter-diagnosis.html</t>
+          <t>StructureDefinition-us-core-condition-problems-health-concerns.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>encounter diagnosis</t>
+          <t>problems and health concern</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -630,141 +719,201 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/condition-category|encounter-diagnosis</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>http://terminology.hl7.org/CodeSystem/condition-category|problem-list-item</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/condition-category|health-concern</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>foo</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core Coverage Profile</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-condition-problems-health-concerns.html</t>
+          <t>StructureDefinition-us-core-coverage.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>problems and health concern</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/CodeSystem/condition-category|problem-list-item</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>http://hl7.org/fhir/us/core/CodeSystem/condition-category|health-concern`</t>
-        </is>
-      </c>
+          <t>Coverage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US Core Coverage Profile</t>
+          <t>US Core Implantable Device Profile</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-coverage.html</t>
+          <t>StructureDefinition-us-core-implantable-device.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>coverage</t>
+          <t>implantable device</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
+          <t>US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-implantable-device.html</t>
+          <t>StructureDefinition-us-core-diagnosticreport-note.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>implantable device</t>
+          <t>clniical note</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Device</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>DiagnosticReport</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>http://loinc.org|LP29684-5</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://loinc.org|LP29708-2	</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://loinc.org|LP7839-6		</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-diagnosticreport-note.html</t>
+          <t>StructureDefinition-us-core-diagnosticreport-lab.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>clniical note</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -774,142 +923,154 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>http://loinc.org|LP29684-5</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://loinc.org|LP29708-2	</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://loinc.org|LP7839-6		</t>
-        </is>
-      </c>
+          <t>http://terminology.hl7.org/CodeSystem/v2-0074|LAB</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+          <t>US Core DocumentReference Profile</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-diagnosticreport-lab.html</t>
+          <t>StructureDefinition-us-core-documentreference.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>laboratory</t>
+          <t>clniical note</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DiagnosticReport</t>
+          <t>DocumentReference</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v2-0074|LAB</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-documentreference-category|clinical-note</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SHOULD</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-documentreference.html</t>
+          <t>StructureDefinition-us-core-encounter.html</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>clniical note</t>
+          <t>encounter</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DocumentReference</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-documentreference-category|clinical-note</t>
-        </is>
-      </c>
+          <t>Encounter</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>US Core Encounter Profile</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-encounter.html</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>encounter</t>
-        </is>
-      </c>
+          <t>!StructureDefinition-us-core-direct.html</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Extension</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>!StructureDefinition-us-core-direct.html</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
+          <t>!StructureDefinition-us-core-race.html</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
@@ -919,22 +1080,27 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>!StructureDefinition-us-core-race.html</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
+          <t>!StructureDefinition-us-core-birthsex.html</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
@@ -944,6 +1110,15 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -952,14 +1127,10 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>!StructureDefinition-us-core-birthsex.html</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
+          <t>!StructureDefinition-us-core-sex.html</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
@@ -969,22 +1140,27 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>!StructureDefinition-us-core-sex.html</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
+          <t>!StructureDefinition-us-core-genderIdentity.html</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
@@ -994,22 +1170,27 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>!StructureDefinition-us-core-genderIdentity.html</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
+          <t>!StructureDefinition-us-core-ethnicity.html</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
@@ -1019,22 +1200,27 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>!StructureDefinition-us-core-ethnicity.html</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
+          <t>!StructureDefinition-us-core-extension-questionnaire-uri.html</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
@@ -1044,244 +1230,332 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>US Core Goal Profile</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>!StructureDefinition-us-core-extension-questionnaire-uri.html</t>
+          <t>StructureDefinition-us-core-goal.html</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Extension</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>US Core Goal Profile</t>
+          <t>US Core Immunization Profile</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-goal.html</t>
+          <t>StructureDefinition-us-core-immunization.html</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>immunization</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>US Core Immunization Profile</t>
+          <t>US Core Location Profile</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-immunization.html</t>
+          <t>StructureDefinition-us-core-location.html</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>immunization</t>
-        </is>
-      </c>
+          <t>MAY</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Immunization</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
+          <t>US Core Medication Profile</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-location.html</t>
+          <t>StructureDefinition-us-core-medication.html</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>US Core Medication Profile</t>
+          <t>US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-medication.html</t>
+          <t>StructureDefinition-us-core-medicationrequest.html</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>prescription</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
+          <t>US Core MedicationDispense Profile</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-medicationrequest.html</t>
+          <t>StructureDefinition-us-core-medicationdispense.html</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>prescription</t>
+          <t>dispensed medication</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
+          <t>MedicationDispense</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>US Core MedicationDispense Profile</t>
+          <t>US Core Laboratory Result Observation Profile</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-medicationdispense.html</t>
+          <t>StructureDefinition-us-core-observation-lab.html</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>dispensed medication</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MedicationDispense</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|laboratory</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Observation Pregnancy Status Profile</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-observation-lab.html</t>
+          <t>StructureDefinition-us-core-observation-pregnancystatus.html</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>laboratory</t>
+          <t>social history</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1291,29 +1565,42 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/observation-category|laboratory</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>http://terminology.hl7.org//CodeSystem-observation-category|social-history</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>US Core Observation Pregnancy Status Profile</t>
+          <t>US Core Observation Pregnancy Intent Profile</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-observation-pregnancystatus.html</t>
+          <t>StructureDefinition-us-core-observation-pregnancyintent.html</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1328,29 +1615,42 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org//CodeSystem-observation-category.html|social-history</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>http://terminology.hl7.org//CodeSystem-observation-category|social-history</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>US Core Observation Pregnancy Intent Profile</t>
+          <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-observation-pregnancyintent.html</t>
+          <t>StructureDefinition-us-core-observation-occupation.html</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1365,96 +1665,131 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org//CodeSystem-observation-category.html|social-history</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>http://terminology.hl7.org//CodeSystem-observation-category|social-history</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>27</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>US Core Observation Occupation Profile</t>
-        </is>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-observation-occupation.html</t>
+          <t>!StructureDefinition-us-core-observation-sdoh-assessment.html</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>social history</t>
-        </is>
-      </c>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org//CodeSystem-observation-category.html|social-history</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28</v>
-      </c>
-      <c r="B31" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>US Core Respiratory Rate Profile</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>!StructureDefinition-us-core-observation-sdoh-assessment.html</t>
+          <t>StructureDefinition-us-core-respiratory-rate.html</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>vital signs</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>US Core Respiratory Rate Profile</t>
+          <t>US Core Simple Observation Profile</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-respiratory-rate.html</t>
+          <t>StructureDefinition-us-core-simple-observation.html</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>vital signs</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1464,34 +1799,63 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|sdoh</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|functional-status</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|disability-status</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|cognitive-status</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|activity</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile</t>
+          <t>US Core Heart Rate Profile</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-simple-observation.html</t>
+          <t>StructureDefinition-us-core-heart-rate.html</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>observation</t>
+          <t>vital signs</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1499,27 +1863,44 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>US Core Heart Rate Profile</t>
+          <t>US Core Body Temperature Profile</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-heart-rate.html</t>
+          <t>StructureDefinition-us-core-body-temperature.html</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1537,26 +1918,39 @@
           <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>US Core Body Temperature Profile</t>
+          <t>US Core Pediatric Weight for Height Observation Profile</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-body-temperature.html</t>
+          <t>StructureDefinition-pediatric-weight-for-height.html</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1574,26 +1968,39 @@
           <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>US Core Pediatric Weight for Height Observation Profile</t>
+          <t>US Core Pulse Oximetry Profile</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>StructureDefinition-pediatric-weight-for-height.html</t>
+          <t>StructureDefinition-us-core-pulse-oximetry.html</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1611,31 +2018,44 @@
           <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>US Core Pulse Oximetry Profile</t>
+          <t>US Core Smoking Status Observation Profile</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-pulse-oximetry.html</t>
+          <t>StructureDefinition-us-core-smokingstatus.html</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>vital signs</t>
+          <t>social history</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1645,29 +2065,42 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>http://terminology.hl7.org//CodeSystem-observation-category|social-history</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>US Core Smoking Status Observation Profile</t>
+          <t>US Core Observation Sexual Orientation Profile</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-smokingstatus.html</t>
+          <t>StructureDefinition-us-core-observation-sexual-orientation.html</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1682,34 +2115,47 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org//CodeSystem-observation-category.html|social-history</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>http://terminology.hl7.org//CodeSystem-observation-category|social-history</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>US Core Observation Sexual Orientation Profile</t>
+          <t>US Core Head Circumference Profile</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-observation-sexual-orientation.html</t>
+          <t>StructureDefinition-us-core-head-circumference.html</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>social history</t>
+          <t>vital signs</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1719,29 +2165,42 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org//CodeSystem-observation-category.html|social-history</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>US Core Head Circumference Profile</t>
+          <t>US Core Body Height Profile</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-head-circumference.html</t>
+          <t>StructureDefinition-us-core-body-height.html</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1759,26 +2218,39 @@
           <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>US Core Body Height Profile</t>
+          <t>US Core BMI Profile</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-body-height.html</t>
+          <t>StructureDefinition-us-core-bmi.html</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1796,31 +2268,44 @@
           <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>US Core BMI Profile</t>
+          <t>US Core Observation Screening Assessment Profile</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-bmi.html</t>
+          <t>StructureDefinition-us-core-observation-screening-assessment.html</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>vital signs</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1830,34 +2315,71 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|survey</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|sdoh</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|functional-status</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|disability-status</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|cognitive-status</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|activity</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>US Core Observation Screening Assessment Profile</t>
+          <t>US Core Average Blood Pressure Profile</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-observation-screening-assessment.html</t>
+          <t>StructureDefinition-us-core-average-blood-pressure.html</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>vital signs</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1867,11 +2389,24 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/observation-category|survey</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1879,17 +2414,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>US Core Average Blood Pressure Profile</t>
+          <t>US Core Blood Pressure Profile</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-average-blood-pressure.html</t>
+          <t>StructureDefinition-us-core-blood-pressure.html</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1907,93 +2442,128 @@
           <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>41</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>US Core Blood Pressure Profile</t>
-        </is>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-blood-pressure.html</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>vital signs</t>
-        </is>
-      </c>
+          <t>!StructureDefinition-us-core-observation-imaging.html</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>42</v>
-      </c>
-      <c r="B46" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>US Core Observation Clinical Result Profile</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>!StructureDefinition-us-core-observation-imaging.html</t>
+          <t>StructureDefinition-us-core-observation-clinical-result.html</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>clinical results</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|laboratory</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|imaging</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|procedure</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile</t>
+          <t>US Core Pediatric BMI for Age Observation Profile</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-observation-clinical-result.html</t>
+          <t>StructureDefinition-pediatric-bmi-for-age.html</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>clinical results</t>
+          <t>vital signs</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2003,37 +2573,42 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/observation-category|imaging</t>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/observation-category|procedure</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/CodeSystem/observation-category|laboratory</t>
-        </is>
-      </c>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>US Core Pediatric BMI for Age Observation Profile</t>
+          <t>US Core Pediatric Head Occipital Frontal Circumference Percentile Profile</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>StructureDefinition-pediatric-bmi-for-age.html</t>
+          <t>StructureDefinition-head-occipital-frontal-circumference-percentile.html</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2051,26 +2626,39 @@
           <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>US Core Pediatric Head Occipital Frontal Circumference Percentile Profile</t>
+          <t>US Core Body Weight Profile</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>StructureDefinition-head-occipital-frontal-circumference-percentile.html</t>
+          <t>StructureDefinition-us-core-body-weight.html</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2088,26 +2676,39 @@
           <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>US Core Body Weight Profile</t>
+          <t>US Core Vital Signs Profile</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-body-weight.html</t>
+          <t>StructureDefinition-us-core-vital-signs.html</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2125,435 +2726,560 @@
           <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>US Core Vital Signs Profile</t>
+          <t>US Core Organization Profile</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-vital-signs.html</t>
+          <t>StructureDefinition-us-core-organization.html</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>vital signs</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
-        </is>
-      </c>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>US Core Organization Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-organization.html</t>
+          <t>StructureDefinition-us-core-patient.html</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>patient</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Practitioner Profile</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-patient.html</t>
+          <t>StructureDefinition-us-core-practitioner.html</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>practitioner</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>Practitioner</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
+          <t>US Core PractitionerRole Profile</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-practitioner.html</t>
+          <t>StructureDefinition-us-core-practitionerrole.html</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>practitioner</t>
+          <t>practitioner role</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Practitioner</t>
+          <t>PractitionerRole</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>US Core PractitionerRole Profile</t>
+          <t>US Core Procedure Profile</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-practitionerrole.html</t>
+          <t>StructureDefinition-us-core-procedure.html</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>practitioner role</t>
+          <t>procedure</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>PractitionerRole</t>
+          <t>Procedure</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile</t>
+          <t>US Core Provenance Profile</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-procedure.html</t>
+          <t>StructureDefinition-us-core-provenance.html</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>procedure</t>
+          <t>provenance</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>Provenance</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>53</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>US Core Provenance Profile</t>
-        </is>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-provenance.html</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>provenance</t>
-        </is>
-      </c>
+          <t>http:--hl7.org-fhir-uv-sdc-StructureDefinition-sdc-questionnaire.html</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Questionnaire</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>54</v>
-      </c>
-      <c r="B58" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>US Core QuestionnaireResponse Profile</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>http:--hl7.org-fhir-uv-sdc-StructureDefinition-sdc-questionnaire.html</t>
+          <t>StructureDefinition-us-core-questionnaireresponse.html</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>completed questionnnaire, survey and assessement</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Questionnaire</t>
+          <t>QuestionnaireResponse</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>US Core QuestionnaireResponse Profile</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-questionnaireresponse.html</t>
+          <t>StructureDefinition-us-core-relatedperson.html</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>completed questionnnaire, survey and assessement</t>
+          <t>related person</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-relatedperson.html</t>
+          <t>StructureDefinition-us-core-servicerequest.html</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>related person</t>
+          <t>order and referral</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+          <t>ServiceRequest</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|sdoh</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|functional-status</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>http://snomed.info/sct|surgical-procedure</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-servicerequest.html</t>
+          <t>StructureDefinition-us-core-specimen.html</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>order and referral</t>
+          <t>specimen</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|sdoh</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|functional-status</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>http://snomed.info/sct|surgical-procedure</t>
-        </is>
-      </c>
+          <t>Specimen</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Treatment Intervention Preference Profile</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-specimen.html</t>
+          <t>StructureDefinition-us-core-treatment-intervention-preference.html</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>treatment intervention preference</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Specimen</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|treatment-intervention-preference</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>US Core Treatment Intervention Preference Profile</t>
+          <t>US Core Care Experience Preference Profile</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-treatment-intervention-preference.html</t>
+          <t>StructureDefinition-us-core-care-experience-preference.html</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>SHALL</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>observation</t>
+          <t>care experience preference</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2563,48 +3289,24 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|treatment-intervention-preference</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|care-experience-preference</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>60</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>US Core Care Experience Preference Profile</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>StructureDefinition-us-core-care-experience-preference.html</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>observation</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>http://hl7.org/fhir/us/core/CodeSystem/us-core-category|care-experience-preference</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/input/images/tables/scopes.xlsx
+++ b/input/images/tables/scopes.xlsx
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-observation-sexual-orientation.html</t>
+          <t>!StructureDefinition-us-core-observation-sexual-orientation.html</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">

--- a/input/images/tables/scopes.xlsx
+++ b/input/images/tables/scopes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="scopes.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scopes.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3309,6 +3309,6 @@
       <c r="R63" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/images/tables/scopes.xlsx
+++ b/input/images/tables/scopes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="scopes.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scopes.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -433,7 +433,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>page_path</t>
+          <t>page_name</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
+          <t>US Core Device Profile</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-implantable-device.html</t>
+          <t>StructureDefinition-us-core-device.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>implantable device</t>
+          <t>medical device</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>clniical note</t>
+          <t>clinical note</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3308,7 +3308,91 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
     </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>61</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>US Core FamilyMemberHistory Profile</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>StructureDefinition-us-core-familymemberhistory.html</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>family health history</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>FamilyMemberHistory</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>62</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>US Core PMO ServiceRequest Profile</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>StructureDefinition-us-core-pmo-servicerequest.html</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SHALL</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>pmo order</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ServiceRequest</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>